--- a/uploads/Porudzbina.xlsx
+++ b/uploads/Porudzbina.xlsx
@@ -2,13 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux\Desktop\SaleBaloni_App\SaleBaloni\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,15 +26,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Br.</t>
+  </si>
+  <si>
+    <t>Grupa proizvoda</t>
+  </si>
+  <si>
+    <t>Sifra proizvoda</t>
+  </si>
+  <si>
+    <t>Kolicina</t>
+  </si>
+  <si>
+    <t>Ime i prezime:</t>
+  </si>
+  <si>
+    <t>Adresa:</t>
+  </si>
+  <si>
+    <t>Telefon:</t>
+  </si>
+  <si>
+    <t>PORUDZBINA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +102,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +285,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>75755</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>744148</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75755" y="66674"/>
+          <a:ext cx="963668" cy="572211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +599,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A5:E6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>